--- a/capstone_hosting/static/excel/12STEM.xlsx
+++ b/capstone_hosting/static/excel/12STEM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\Kurt_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\Kurt_Files\django_testing\Capstone-Attendance-main\Capstone-Attendance-main\capstone_hosting\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>faithjazendel.ugbinar@paceacademy.edu.ph</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>sherwin.yaun@paceacademy.edu.ph</t>
+  </si>
+  <si>
+    <t>lrn</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -497,7 +497,7 @@
         <v>1201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -517,7 +517,7 @@
         <v>1202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -537,7 +537,7 @@
         <v>1203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
@@ -557,7 +557,7 @@
         <v>1204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>12</v>
@@ -577,7 +577,7 @@
         <v>1205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -597,7 +597,7 @@
         <v>1206</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>12</v>
@@ -617,7 +617,7 @@
         <v>1207</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -637,7 +637,7 @@
         <v>1208</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>12</v>
@@ -657,7 +657,7 @@
         <v>1209</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>12</v>
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>1210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>12</v>
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>1211</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>1212</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
@@ -729,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>1213</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
@@ -757,7 +757,7 @@
         <v>1214</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
         <v>1215</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
@@ -797,7 +797,7 @@
         <v>1216</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>1217</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
         <v>12</v>
@@ -877,7 +877,7 @@
         <v>1220</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>12</v>
@@ -889,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
         <v>1221</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
         <v>12</v>
@@ -917,7 +917,7 @@
         <v>1222</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
         <v>12</v>

--- a/capstone_hosting/static/excel/12STEM.xlsx
+++ b/capstone_hosting/static/excel/12STEM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>paulgiancarlo.syjueco@paceacademy.edu.ph</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>lrn</t>
+  </si>
+  <si>
+    <t>lates</t>
+  </si>
+  <si>
+    <t>absents</t>
+  </si>
+  <si>
+    <t>latetoday</t>
+  </si>
+  <si>
+    <t>absenttoday</t>
   </si>
 </sst>
 </file>
@@ -173,13 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +487,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -491,8 +506,20 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1201</v>
       </c>
@@ -511,8 +538,20 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1202</v>
       </c>
@@ -531,8 +570,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1203</v>
       </c>
@@ -551,8 +602,20 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1204</v>
       </c>
@@ -571,8 +634,20 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1205</v>
       </c>
@@ -591,8 +666,20 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1206</v>
       </c>
@@ -611,8 +698,20 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1207</v>
       </c>
@@ -631,8 +730,20 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1208</v>
       </c>
@@ -651,8 +762,20 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1209</v>
       </c>
@@ -671,8 +794,20 @@
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1210</v>
       </c>
@@ -691,8 +826,20 @@
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1211</v>
       </c>
@@ -711,8 +858,20 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1212</v>
       </c>
@@ -731,8 +890,20 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1213</v>
       </c>
@@ -751,8 +922,20 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1214</v>
       </c>
@@ -771,8 +954,20 @@
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1215</v>
       </c>
@@ -791,8 +986,20 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1216</v>
       </c>
@@ -811,8 +1018,20 @@
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1217</v>
       </c>
@@ -831,8 +1050,20 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1218</v>
       </c>
@@ -851,8 +1082,20 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1219</v>
       </c>
@@ -871,8 +1114,20 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1220</v>
       </c>
@@ -891,8 +1146,20 @@
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1221</v>
       </c>
@@ -911,8 +1178,20 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1222</v>
       </c>
@@ -930,6 +1209,18 @@
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
